--- a/testData/testBeanFactoryTransposed.xlsx
+++ b/testData/testBeanFactoryTransposed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\LightweightFileObjectIO\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\MikeBeanUtils\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9496C4AA-D2CE-4576-9246-6CE6C96C61C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80AAAC8-7766-4EAB-B1C8-61FCEDE342B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45060" yWindow="10650" windowWidth="14800" windowHeight="6630" xr2:uid="{00689708-E559-4CA5-B9F1-BE34BCB05DD1}"/>
+    <workbookView xWindow="12630" yWindow="3426" windowWidth="9966" windowHeight="7134" xr2:uid="{00689708-E559-4CA5-B9F1-BE34BCB05DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>iSt</t>
   </si>
@@ -63,12 +63,6 @@
     <t>bb</t>
   </si>
   <si>
-    <t>field1</t>
-  </si>
-  <si>
-    <t>field2</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -97,6 +91,18 @@
   </si>
   <si>
     <t>:TRR;;ER=</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>btt</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B86E60-3F28-40FE-B1F8-6D692934FFB4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -501,39 +507,39 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>-2</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>-3</v>
       </c>
       <c r="F3">
-        <v>43</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>66.649199999999993</v>
-      </c>
-      <c r="C4">
-        <v>38.871000000000002</v>
-      </c>
       <c r="D4">
-        <v>87.063800000000001</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>41.540300000000002</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>38.636099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -541,159 +547,199 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>-100</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>-1000</v>
       </c>
       <c r="F5">
-        <v>91</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>96.081299999999999</v>
+        <v>0.66666000000000003</v>
       </c>
       <c r="C6">
-        <v>30.2392</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="D6">
-        <v>51.3294</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="E6">
-        <v>27.835100000000001</v>
+        <v>0.66</v>
       </c>
       <c r="F6">
-        <v>95.400700000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>-1.2</v>
+      </c>
+      <c r="D7">
+        <v>-1.3</v>
+      </c>
+      <c r="E7">
+        <v>-1.4</v>
+      </c>
+      <c r="F7">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>45.1</v>
+      </c>
+      <c r="C8">
+        <v>30.1</v>
+      </c>
+      <c r="D8">
+        <v>15.1</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>-14.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>-5</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <v>-3</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
